--- a/example_df.xlsx
+++ b/example_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adubs\Documents\GitHub\glyc-hardware-int\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991289DA-80F0-4661-8DDB-F49BAD1A2BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E6847-440B-42C8-B140-499E4B313D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{248E64A1-F061-4A90-A392-C819CBD819BC}"/>
   </bookViews>
@@ -116,16 +116,16 @@
     <t>G2F</t>
   </si>
   <si>
-    <t>DL-Asparagine (Asn)</t>
-  </si>
-  <si>
-    <t>DL-Aspartic acid (Asp)</t>
-  </si>
-  <si>
     <t>Man5</t>
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Asn</t>
+  </si>
+  <si>
+    <t>Asp</t>
   </si>
 </sst>
 </file>
@@ -506,21 +506,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D6C3DD-FC44-4D86-9A52-F9CF743C9EED}">
   <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y1" t="s">
         <v>20</v>

--- a/example_df.xlsx
+++ b/example_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adubs\Documents\GitHub\glyc-hardware-int\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E6847-440B-42C8-B140-499E4B313D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566691B5-D3A7-44E9-A6B8-738DA5086738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{248E64A1-F061-4A90-A392-C819CBD819BC}"/>
+    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{248E64A1-F061-4A90-A392-C819CBD819BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Galactose</t>
   </si>
@@ -116,9 +116,6 @@
     <t>G2F</t>
   </si>
   <si>
-    <t>Man5</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -126,6 +123,12 @@
   </si>
   <si>
     <t>Asp</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Vol</t>
   </si>
 </sst>
 </file>
@@ -504,103 +507,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D6C3DD-FC44-4D86-9A52-F9CF743C9EED}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/example_df.xlsx
+++ b/example_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adubs\Documents\GitHub\glyc-hardware-int\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566691B5-D3A7-44E9-A6B8-738DA5086738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E7594-84F1-4BCA-9E1A-50F9F1A21030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{248E64A1-F061-4A90-A392-C819CBD819BC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{248E64A1-F061-4A90-A392-C819CBD819BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>mAb</t>
   </si>
   <si>
-    <t>Viability</t>
-  </si>
-  <si>
     <t>ViableDensity</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Vol</t>
+  </si>
+  <si>
+    <t>TotalDensity</t>
   </si>
 </sst>
 </file>
@@ -510,23 +510,23 @@
   <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -541,73 +541,73 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>24</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
